--- a/docs/test cases/DVM_PKG/verification_templates/category_5_DVM_issue_verification.xlsx
+++ b/docs/test cases/DVM_PKG/verification_templates/category_5_DVM_issue_verification.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="107">
   <si>
     <t>CRUISE_NAME</t>
   </si>
@@ -244,6 +244,105 @@
   </si>
   <si>
     <t>ISS_DESC</t>
+  </si>
+  <si>
+    <t>HI-21-06</t>
+  </si>
+  <si>
+    <t>HI-21-07</t>
+  </si>
+  <si>
+    <t>HI-20-08</t>
+  </si>
+  <si>
+    <t>HI-20-09</t>
+  </si>
+  <si>
+    <t>HI-20-08 Leg 1, HI-20-08 Leg 2</t>
+  </si>
+  <si>
+    <t>There are two legs for the same Vessel (Hi'ialakai) whose leg dates overlap; Leg 1: (Cruise: HI-20-08, Leg Name: HI-20-08 Leg 2, Start Date: 07/02/2020, End Date: 07/26/2020), Leg 2: (Cruise: HI-20-09, Leg Name: HI-20-09 Leg 1, Start Date: 07/20/2020, End Date: 08/12/2020)</t>
+  </si>
+  <si>
+    <t>HI-20-09 Leg 1, HI-20-09 Leg 2</t>
+  </si>
+  <si>
+    <t>There are two legs for the same Vessel (Hi'ialakai) whose leg dates overlap; Leg 1: (Cruise: HI-20-09, Leg Name: HI-20-09 Leg 1, Start Date: 07/20/2020, End Date: 08/12/2020), Leg 2: (Cruise: HI-20-08, Leg Name: HI-20-08 Leg 2, Start Date: 07/02/2020, End Date: 07/26/2020)</t>
+  </si>
+  <si>
+    <t>There are two legs for the same Vessel (Hi'ialakai) whose leg dates overlap; Leg 1: (Cruise: HI-21-06, Leg Name: HI-21-06, Start Date: 03/15/2021, End Date: 03/30/2021), Leg 2: (Cruise: HI-21-07, Leg Name: HI-21-07 Leg 1, Start Date: 03/27/2021, End Date: 04/15/2021)</t>
+  </si>
+  <si>
+    <t>HI-21-07 Leg 1, HI-21-07 Leg 2</t>
+  </si>
+  <si>
+    <t>There are two legs for the same Vessel (Hi'ialakai) whose leg dates overlap; Leg 1: (Cruise: HI-21-07, Leg Name: HI-21-07 Leg 1, Start Date: 03/27/2021, End Date: 04/15/2021), Leg 2: (Cruise: HI-21-06, Leg Name: HI-21-06, Start Date: 03/15/2021, End Date: 03/30/2021)</t>
+  </si>
+  <si>
+    <t>SE-21-07</t>
+  </si>
+  <si>
+    <t>SE-21-09</t>
+  </si>
+  <si>
+    <t>SE-21-09 Leg 1, SE-21-09 Leg 2</t>
+  </si>
+  <si>
+    <t>There are two legs for the same Vessel (Oscar Elton Sette) whose leg dates overlap; Leg 1: (Cruise: SE-21-07, Leg Name: SE-21-07, Start Date: 05/20/2021, End Date: 06/16/2021), Leg 2: (Cruise: SE-21-09, Leg Name: SE-21-09 Leg 1, Start Date: 05/11/2021, End Date: 05/30/2021)</t>
+  </si>
+  <si>
+    <t>There are two legs for the same Vessel (Oscar Elton Sette) whose leg dates overlap; Leg 1: (Cruise: SE-21-07, Leg Name: SE-21-07, Start Date: 05/20/2021, End Date: 06/16/2021), Leg 2: (Cruise: SE-21-09, Leg Name: SE-21-09 Leg 2, Start Date: 06/02/2021, End Date: 06/19/2021)</t>
+  </si>
+  <si>
+    <t>There are two legs for the same Vessel (Oscar Elton Sette) whose leg dates overlap; Leg 1: (Cruise: SE-21-09, Leg Name: SE-21-09 Leg 1, Start Date: 05/11/2021, End Date: 05/30/2021), Leg 2: (Cruise: SE-21-07, Leg Name: SE-21-07, Start Date: 05/20/2021, End Date: 06/16/2021)</t>
+  </si>
+  <si>
+    <t>There are two legs for the same Vessel (Oscar Elton Sette) whose leg dates overlap; Leg 1: (Cruise: SE-21-09, Leg Name: SE-21-09 Leg 2, Start Date: 06/02/2021, End Date: 06/19/2021), Leg 2: (Cruise: SE-21-07, Leg Name: SE-21-07, Start Date: 05/20/2021, End Date: 06/16/2021)</t>
+  </si>
+  <si>
+    <t>There are two legs for the same Vessel (Hi'ialakai) whose leg dates overlap; Leg 1: (Cruise: SE-19-04, Leg Name: SE-19-04 Leg 1, Start Date: 06/01/2019, End Date: 06/15/2019), Leg 2: (Cruise: SE-19-05, Leg Name: SE-19-05 Leg 1, Start Date: 06/14/2019, End Date: 07/20/2019)</t>
+  </si>
+  <si>
+    <t>There are two legs for the same Vessel (Hi'ialakai) whose leg dates overlap; Leg 1: (Cruise: SE-19-04, Leg Name: SE-19-04 Leg 2, Start Date: 06/19/2019, End Date: 07/12/2019), Leg 2: (Cruise: SE-19-05, Leg Name: SE-19-05 Leg 1, Start Date: 06/14/2019, End Date: 07/20/2019)</t>
+  </si>
+  <si>
+    <t>There are two legs for the same Vessel (Hi'ialakai) whose leg dates overlap; Leg 1: (Cruise: SE-19-05, Leg Name: SE-19-05 Leg 1, Start Date: 06/14/2019, End Date: 07/20/2019), Leg 2: (Cruise: SE-19-04, Leg Name: SE-19-04 Leg 1, Start Date: 06/01/2019, End Date: 06/15/2019)</t>
+  </si>
+  <si>
+    <t>There are two legs for the same Vessel (Hi'ialakai) whose leg dates overlap; Leg 1: (Cruise: SE-19-05, Leg Name: SE-19-05 Leg 1, Start Date: 06/14/2019, End Date: 07/20/2019), Leg 2: (Cruise: SE-19-04, Leg Name: SE-19-04 Leg 2, Start Date: 06/19/2019, End Date: 07/12/2019)</t>
+  </si>
+  <si>
+    <t>The Cruise (SE-19-05) has a Cruise Leg (SE-19-05 Leg 1) on the Vessel (Hi'ialakai) with a Start Date (06/14/2019) and End Date (07/20/2019) that has an unusually high number ( &gt; 30) of Days at Sea (37)</t>
+  </si>
+  <si>
+    <t>SE-19-04</t>
+  </si>
+  <si>
+    <t>SE-19-04 Leg 1, SE-19-04 Leg 2</t>
+  </si>
+  <si>
+    <t>SE-19-05</t>
+  </si>
+  <si>
+    <t>SE-19-05 Leg 1, SE-19-05 Leg 2</t>
+  </si>
+  <si>
+    <t>SE-22-01</t>
+  </si>
+  <si>
+    <t>SE-22-02</t>
+  </si>
+  <si>
+    <t>SE-22-01 Leg 1, SE-22-01 Leg 2</t>
+  </si>
+  <si>
+    <t>SE-22-02 Leg 1, SE-22-02 Leg 2</t>
+  </si>
+  <si>
+    <t>There are two legs for the same Vessel (Oscar Elton Sette) whose leg dates overlap; Leg 1: (Cruise: SE-22-01, Leg Name: SE-22-01 Leg 2, Start Date: 11/15/2021, End Date: 12/04/2021), Leg 2: (Cruise: SE-22-02, Leg Name: SE-22-02 Leg 1, Start Date: 12/01/2021, End Date: 12/14/2021)</t>
+  </si>
+  <si>
+    <t>There are two legs for the same Vessel (Oscar Elton Sette) whose leg dates overlap; Leg 1: (Cruise: SE-22-02, Leg Name: SE-22-02 Leg 1, Start Date: 12/01/2021, End Date: 12/14/2021), Leg 2: (Cruise: SE-22-01, Leg Name: SE-22-01 Leg 2, Start Date: 11/15/2021, End Date: 12/04/2021)</t>
   </si>
 </sst>
 </file>
@@ -578,16 +677,17 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
     <col min="4" max="4" width="37.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="69" style="1" customWidth="1"/>
   </cols>
@@ -753,81 +853,81 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>69</v>
@@ -839,13 +939,13 @@
         <v>11</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>38</v>
       </c>
@@ -853,22 +953,22 @@
         <v>39</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>38</v>
       </c>
@@ -876,19 +976,19 @@
         <v>39</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -899,157 +999,502 @@
         <v>39</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="D16" s="3" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E21" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F21" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+    <row r="22" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="3" t="s">
+      <c r="C22" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E22" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F22" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G22" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+    <row r="23" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B23" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" s="3" t="s">
+      <c r="C23" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E23" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F23" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G23" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+    <row r="24" spans="1:7" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E24" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F24" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G24" s="3" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1064,10 +1509,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G20"/>
+      <selection sqref="A1:G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1244,79 +1689,79 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
         <v>69</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
         <v>69</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="G9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
         <v>69</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="C11" t="s">
         <v>69</v>
@@ -1328,7 +1773,7 @@
         <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="G11" t="s">
         <v>13</v>
@@ -1342,19 +1787,19 @@
         <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="F12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G12" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1365,19 +1810,19 @@
         <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="D13" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1388,157 +1833,502 @@
         <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="D14" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
         <v>69</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="G15" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F17" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E18" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G18" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
         <v>69</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F19" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="G19" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>51</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B22" t="s">
         <v>52</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" t="s">
         <v>24</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D24" t="s">
         <v>63</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E24" t="s">
         <v>33</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F24" t="s">
         <v>61</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G24" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" t="s">
+        <v>92</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" t="s">
+        <v>93</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" t="s">
+        <v>94</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" t="s">
+        <v>95</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" t="s">
+        <v>96</v>
+      </c>
+      <c r="G29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" t="s">
+        <v>88</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" t="s">
+        <v>89</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" t="s">
+        <v>90</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" t="s">
+        <v>91</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" t="s">
+        <v>105</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" t="s">
+        <v>106</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1551,7 +2341,7 @@
   <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1802,7 +2592,7 @@
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="str">
         <f>CCD_CRUISE_SUMM_ERR_V!A8</f>
-        <v>HI1101</v>
+        <v>HI-20-08</v>
       </c>
       <c r="B8" s="2" t="b">
         <f>EXACT(CCD_CRUISE_SUMM_ERR_V!A8,'Database Export'!A8)</f>
@@ -1836,7 +2626,7 @@
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="str">
         <f>CCD_CRUISE_SUMM_ERR_V!A9</f>
-        <v>HI1101</v>
+        <v>HI-20-09</v>
       </c>
       <c r="B9" s="2" t="b">
         <f>EXACT(CCD_CRUISE_SUMM_ERR_V!A9,'Database Export'!A9)</f>
@@ -1870,7 +2660,7 @@
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="str">
         <f>CCD_CRUISE_SUMM_ERR_V!A10</f>
-        <v>HI1101</v>
+        <v>HI-21-06</v>
       </c>
       <c r="B10" s="2" t="b">
         <f>EXACT(CCD_CRUISE_SUMM_ERR_V!A10,'Database Export'!A10)</f>
@@ -1904,7 +2694,7 @@
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="str">
         <f>CCD_CRUISE_SUMM_ERR_V!A11</f>
-        <v>HI1101</v>
+        <v>HI-21-07</v>
       </c>
       <c r="B11" s="2" t="b">
         <f>EXACT(CCD_CRUISE_SUMM_ERR_V!A11,'Database Export'!A11)</f>
@@ -2040,7 +2830,7 @@
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="str">
         <f>CCD_CRUISE_SUMM_ERR_V!A15</f>
-        <v>HI1102</v>
+        <v>HI1101</v>
       </c>
       <c r="B15" s="2" t="b">
         <f>EXACT(CCD_CRUISE_SUMM_ERR_V!A15,'Database Export'!A15)</f>
@@ -2074,7 +2864,7 @@
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="str">
         <f>CCD_CRUISE_SUMM_ERR_V!A16</f>
-        <v>HI1102</v>
+        <v>HI1101</v>
       </c>
       <c r="B16" s="2" t="b">
         <f>EXACT(CCD_CRUISE_SUMM_ERR_V!A16,'Database Export'!A16)</f>
@@ -2108,7 +2898,7 @@
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="str">
         <f>CCD_CRUISE_SUMM_ERR_V!A17</f>
-        <v>HI1102</v>
+        <v>HI1101</v>
       </c>
       <c r="B17" s="2" t="b">
         <f>EXACT(CCD_CRUISE_SUMM_ERR_V!A17,'Database Export'!A17)</f>
@@ -2142,7 +2932,7 @@
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="str">
         <f>CCD_CRUISE_SUMM_ERR_V!A18</f>
-        <v>SE-15-01</v>
+        <v>HI1101</v>
       </c>
       <c r="B18" s="2" t="b">
         <f>EXACT(CCD_CRUISE_SUMM_ERR_V!A18,'Database Export'!A18)</f>
@@ -2176,7 +2966,7 @@
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="str">
         <f>CCD_CRUISE_SUMM_ERR_V!A19</f>
-        <v>SE-15-01</v>
+        <v>HI1102</v>
       </c>
       <c r="B19" s="2" t="b">
         <f>EXACT(CCD_CRUISE_SUMM_ERR_V!A19,'Database Export'!A19)</f>
@@ -2210,7 +3000,7 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="str">
         <f>CCD_CRUISE_SUMM_ERR_V!A20</f>
-        <v>SE-15-01</v>
+        <v>HI1102</v>
       </c>
       <c r="B20" s="2" t="b">
         <f>EXACT(CCD_CRUISE_SUMM_ERR_V!A20,'Database Export'!A20)</f>
@@ -2242,9 +3032,9 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="A21" s="2" t="str">
         <f>CCD_CRUISE_SUMM_ERR_V!A21</f>
-        <v>0</v>
+        <v>HI1102</v>
       </c>
       <c r="B21" s="2" t="b">
         <f>EXACT(CCD_CRUISE_SUMM_ERR_V!A21,'Database Export'!A21)</f>
@@ -2276,9 +3066,9 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+      <c r="A22" s="2" t="str">
         <f>CCD_CRUISE_SUMM_ERR_V!A22</f>
-        <v>0</v>
+        <v>SE-15-01</v>
       </c>
       <c r="B22" s="2" t="b">
         <f>EXACT(CCD_CRUISE_SUMM_ERR_V!A22,'Database Export'!A22)</f>
@@ -2310,9 +3100,9 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+      <c r="A23" s="2" t="str">
         <f>CCD_CRUISE_SUMM_ERR_V!A23</f>
-        <v>0</v>
+        <v>SE-15-01</v>
       </c>
       <c r="B23" s="2" t="b">
         <f>EXACT(CCD_CRUISE_SUMM_ERR_V!A23,'Database Export'!A23)</f>
@@ -2344,9 +3134,9 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+      <c r="A24" s="2" t="str">
         <f>CCD_CRUISE_SUMM_ERR_V!A24</f>
-        <v>0</v>
+        <v>SE-15-01</v>
       </c>
       <c r="B24" s="2" t="b">
         <f>EXACT(CCD_CRUISE_SUMM_ERR_V!A24,'Database Export'!A24)</f>
@@ -2378,9 +3168,9 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+      <c r="A25" s="2" t="str">
         <f>CCD_CRUISE_SUMM_ERR_V!A25</f>
-        <v>0</v>
+        <v>SE-19-04</v>
       </c>
       <c r="B25" s="2" t="b">
         <f>EXACT(CCD_CRUISE_SUMM_ERR_V!A25,'Database Export'!A25)</f>
@@ -2412,9 +3202,9 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+      <c r="A26" s="2" t="str">
         <f>CCD_CRUISE_SUMM_ERR_V!A26</f>
-        <v>0</v>
+        <v>SE-19-04</v>
       </c>
       <c r="B26" s="2" t="b">
         <f>EXACT(CCD_CRUISE_SUMM_ERR_V!A26,'Database Export'!A26)</f>
@@ -2446,9 +3236,9 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+      <c r="A27" s="2" t="str">
         <f>CCD_CRUISE_SUMM_ERR_V!A27</f>
-        <v>0</v>
+        <v>SE-19-05</v>
       </c>
       <c r="B27" s="2" t="b">
         <f>EXACT(CCD_CRUISE_SUMM_ERR_V!A27,'Database Export'!A27)</f>
@@ -2480,9 +3270,9 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+      <c r="A28" s="2" t="str">
         <f>CCD_CRUISE_SUMM_ERR_V!A28</f>
-        <v>0</v>
+        <v>SE-19-05</v>
       </c>
       <c r="B28" s="2" t="b">
         <f>EXACT(CCD_CRUISE_SUMM_ERR_V!A28,'Database Export'!A28)</f>
@@ -2514,9 +3304,9 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+      <c r="A29" s="2" t="str">
         <f>CCD_CRUISE_SUMM_ERR_V!A29</f>
-        <v>0</v>
+        <v>SE-19-05</v>
       </c>
       <c r="B29" s="2" t="b">
         <f>EXACT(CCD_CRUISE_SUMM_ERR_V!A29,'Database Export'!A29)</f>
@@ -2548,9 +3338,9 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+      <c r="A30" s="2" t="str">
         <f>CCD_CRUISE_SUMM_ERR_V!A30</f>
-        <v>0</v>
+        <v>SE-21-07</v>
       </c>
       <c r="B30" s="2" t="b">
         <f>EXACT(CCD_CRUISE_SUMM_ERR_V!A30,'Database Export'!A30)</f>
@@ -2582,9 +3372,9 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+      <c r="A31" s="2" t="str">
         <f>CCD_CRUISE_SUMM_ERR_V!A31</f>
-        <v>0</v>
+        <v>SE-21-07</v>
       </c>
       <c r="B31" s="2" t="b">
         <f>EXACT(CCD_CRUISE_SUMM_ERR_V!A31,'Database Export'!A31)</f>
@@ -2616,9 +3406,9 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+      <c r="A32" s="2" t="str">
         <f>CCD_CRUISE_SUMM_ERR_V!A32</f>
-        <v>0</v>
+        <v>SE-21-09</v>
       </c>
       <c r="B32" s="2" t="b">
         <f>EXACT(CCD_CRUISE_SUMM_ERR_V!A32,'Database Export'!A32)</f>
@@ -2650,9 +3440,9 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+      <c r="A33" s="2" t="str">
         <f>CCD_CRUISE_SUMM_ERR_V!A33</f>
-        <v>0</v>
+        <v>SE-21-09</v>
       </c>
       <c r="B33" s="2" t="b">
         <f>EXACT(CCD_CRUISE_SUMM_ERR_V!A33,'Database Export'!A33)</f>
@@ -2684,9 +3474,9 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
+      <c r="A34" s="2" t="str">
         <f>CCD_CRUISE_SUMM_ERR_V!A34</f>
-        <v>0</v>
+        <v>SE-22-01</v>
       </c>
       <c r="B34" s="2" t="b">
         <f>EXACT(CCD_CRUISE_SUMM_ERR_V!A34,'Database Export'!A34)</f>
@@ -2718,9 +3508,9 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
+      <c r="A35" s="2" t="str">
         <f>CCD_CRUISE_SUMM_ERR_V!A35</f>
-        <v>0</v>
+        <v>SE-22-02</v>
       </c>
       <c r="B35" s="2" t="b">
         <f>EXACT(CCD_CRUISE_SUMM_ERR_V!A35,'Database Export'!A35)</f>
